--- a/effects.xlsx
+++ b/effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAB7FDB-0857-4DB3-8649-27C7D4E534F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F931905-AC31-446F-A827-277D7DB61087}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{4B6EEA52-CA12-4EB1-AADD-203E03242427}"/>
   </bookViews>
@@ -461,25 +461,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.49763861230380546</v>
+        <v>-0.49620093419721256</v>
       </c>
       <c r="C2">
-        <v>-432.68665270148972</v>
+        <v>-431.81516182681116</v>
       </c>
       <c r="D2">
-        <v>-432.89027621927198</v>
+        <v>-431.67343392460077</v>
       </c>
       <c r="E2">
-        <v>-36.2072374756711</v>
+        <v>-36.13127625162884</v>
       </c>
       <c r="F2">
-        <v>-35.675261200213242</v>
+        <v>-35.573242268209512</v>
       </c>
       <c r="G2">
-        <v>1.5763055669615486E-2</v>
+        <v>1.5595313481733302E-2</v>
       </c>
       <c r="H2">
-        <v>0.29315587044534408</v>
+        <v>0.29074038461538487</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -487,25 +487,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.5414837299053166E-4</v>
+        <v>-8.385814077898901E-4</v>
       </c>
       <c r="C3">
-        <v>93.733160111791577</v>
+        <v>95.352608977648174</v>
       </c>
       <c r="D3">
-        <v>93.739025166643273</v>
+        <v>95.379220515924501</v>
       </c>
       <c r="E3">
-        <v>7.9313035322431373</v>
+        <v>7.9615255072750397</v>
       </c>
       <c r="F3">
-        <v>7.9507000758303628</v>
+        <v>7.9530962255146127</v>
       </c>
       <c r="G3">
-        <v>6.0127889199360074E-5</v>
+        <v>-1.2601828352389217E-4</v>
       </c>
       <c r="H3">
-        <v>4.1376518218622094E-3</v>
+        <v>3.3513313609465634E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -513,25 +513,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.2807402224308088E-2</v>
+        <v>8.450740717063232E-2</v>
       </c>
       <c r="C4">
-        <v>34.54828456271288</v>
+        <v>35.567807279012086</v>
       </c>
       <c r="D4">
-        <v>54.619589133340696</v>
+        <v>55.621001457734707</v>
       </c>
       <c r="E4">
-        <v>0.47450153692768732</v>
+        <v>0.58649911689816747</v>
       </c>
       <c r="F4">
-        <v>1.9889362981508345</v>
+        <v>2.112122992609935</v>
       </c>
       <c r="G4">
-        <v>-5.8170076910660047E-3</v>
+        <v>-5.69966157537988E-3</v>
       </c>
       <c r="H4">
-        <v>-0.11252429149797569</v>
+        <v>-0.11186760355029587</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,25 +539,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.1152886615296564E-3</v>
+        <v>-9.7318795843409633E-4</v>
       </c>
       <c r="C5">
-        <v>-460.01377522623068</v>
+        <v>-461.18887876147267</v>
       </c>
       <c r="D5">
-        <v>-407.9021246351291</v>
+        <v>-409.09865171725244</v>
       </c>
       <c r="E5">
-        <v>-40.810350350451337</v>
+        <v>-40.705554021393496</v>
       </c>
       <c r="F5">
-        <v>-35.882999508193379</v>
+        <v>-35.791719373190929</v>
       </c>
       <c r="G5">
-        <v>4.5209870934834223E-2</v>
+        <v>4.4944120152599291E-2</v>
       </c>
       <c r="H5">
-        <v>0.87822064777327946</v>
+        <v>0.87853106508875767</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,25 +565,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.20035938322105898</v>
+        <v>0.20578098261858394</v>
       </c>
       <c r="C6">
-        <v>-301.51767079083299</v>
+        <v>-300.97431617367533</v>
       </c>
       <c r="D6">
-        <v>-249.36348809896595</v>
+        <v>-248.07290849227374</v>
       </c>
       <c r="E6">
-        <v>-21.175877678615691</v>
+        <v>-21.249920242392758</v>
       </c>
       <c r="F6">
-        <v>-14.986157981267635</v>
+        <v>-14.99611347771171</v>
       </c>
       <c r="G6">
-        <v>5.8674956358357781E-2</v>
+        <v>5.8704170810251755E-2</v>
       </c>
       <c r="H6">
-        <v>1.1698755060728743</v>
+        <v>1.1665784023668637</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,25 +591,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.43216953731809093</v>
+        <v>0.43398202681055875</v>
       </c>
       <c r="C7">
-        <v>151.39567680464469</v>
+        <v>154.79031161725925</v>
       </c>
       <c r="D7">
-        <v>203.6550286596333</v>
+        <v>207.30705060030263</v>
       </c>
       <c r="E7">
-        <v>11.650708290668646</v>
+        <v>11.775369669545347</v>
       </c>
       <c r="F7">
-        <v>16.582190040186525</v>
+        <v>16.696845485926147</v>
       </c>
       <c r="G7">
-        <v>3.7281842219421858E-2</v>
+        <v>3.7273361297065592E-2</v>
       </c>
       <c r="H7">
-        <v>0.75616599190283385</v>
+        <v>0.75583136094674441</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -617,25 +617,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.74802427433195895</v>
+        <v>-0.74856626595422326</v>
       </c>
       <c r="C8">
-        <v>-426.28219598287063</v>
+        <v>-428.3091846150279</v>
       </c>
       <c r="D8">
-        <v>-479.11509504607443</v>
+        <v>-481.02811230430905</v>
       </c>
       <c r="E8">
-        <v>-33.095655743466246</v>
+        <v>-33.204771757698779</v>
       </c>
       <c r="F8">
-        <v>-37.249796144060859</v>
+        <v>-37.368525880499348</v>
       </c>
       <c r="G8">
-        <v>-2.1304877048531755E-2</v>
+        <v>-2.140026530152429E-2</v>
       </c>
       <c r="H8">
-        <v>-0.44881477732793518</v>
+        <v>-0.45112056213017665</v>
       </c>
     </row>
   </sheetData>

--- a/effects.xlsx
+++ b/effects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F931905-AC31-446F-A827-277D7DB61087}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945DBAA3-99EC-4424-948C-88D537A638EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{4B6EEA52-CA12-4EB1-AADD-203E03242427}"/>
+    <workbookView xWindow="780" yWindow="1380" windowWidth="15375" windowHeight="7875" xr2:uid="{4B6EEA52-CA12-4EB1-AADD-203E03242427}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>

--- a/effects.xlsx
+++ b/effects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945DBAA3-99EC-4424-948C-88D537A638EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E6404-CCC6-410E-912C-322620981B2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1380" windowWidth="15375" windowHeight="7875" xr2:uid="{4B6EEA52-CA12-4EB1-AADD-203E03242427}"/>
+    <workbookView xWindow="2160" yWindow="2760" windowWidth="15375" windowHeight="7875" xr2:uid="{4B6EEA52-CA12-4EB1-AADD-203E03242427}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -461,25 +461,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.49620093419721256</v>
+        <v>-0.30966315450077847</v>
       </c>
       <c r="C2">
-        <v>-431.81516182681116</v>
+        <v>-203.09090481091886</v>
       </c>
       <c r="D2">
-        <v>-431.67343392460077</v>
+        <v>-202.98751629179927</v>
       </c>
       <c r="E2">
-        <v>-36.13127625162884</v>
+        <v>-18.869026550499044</v>
       </c>
       <c r="F2">
-        <v>-35.573242268209512</v>
+        <v>-18.904046179721892</v>
       </c>
       <c r="G2">
-        <v>1.5595313481733302E-2</v>
+        <v>3.7086512067039043E-3</v>
       </c>
       <c r="H2">
-        <v>0.29074038461538487</v>
+        <v>6.3723880597015004E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -487,25 +487,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-8.385814077898901E-4</v>
+        <v>3.1460458216066578E-3</v>
       </c>
       <c r="C3">
-        <v>95.352608977648174</v>
+        <v>42.020177949335547</v>
       </c>
       <c r="D3">
-        <v>95.379220515924501</v>
+        <v>42.062479239317327</v>
       </c>
       <c r="E3">
-        <v>7.9615255072750397</v>
+        <v>3.8954411194016609</v>
       </c>
       <c r="F3">
-        <v>7.9530962255146127</v>
+        <v>3.9082622756649821</v>
       </c>
       <c r="G3">
-        <v>-1.2601828352389217E-4</v>
+        <v>1.1170773108908072E-4</v>
       </c>
       <c r="H3">
-        <v>3.3513313609465634E-3</v>
+        <v>3.9925373134326869E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -513,25 +513,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.450740717063232E-2</v>
+        <v>0.17854483541972851</v>
       </c>
       <c r="C4">
-        <v>35.567807279012086</v>
+        <v>157.16114655716964</v>
       </c>
       <c r="D4">
-        <v>55.621001457734707</v>
+        <v>177.04634316684729</v>
       </c>
       <c r="E4">
-        <v>0.58649911689816747</v>
+        <v>14.430682393334109</v>
       </c>
       <c r="F4">
-        <v>2.112122992609935</v>
+        <v>16.309391370882459</v>
       </c>
       <c r="G4">
-        <v>-5.69966157537988E-3</v>
+        <v>-3.6745046362537497E-3</v>
       </c>
       <c r="H4">
-        <v>-0.11186760355029587</v>
+        <v>-6.2089552238806106E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,25 +539,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-9.7318795843409633E-4</v>
+        <v>0.27010893180984419</v>
       </c>
       <c r="C5">
-        <v>-461.18887876147267</v>
+        <v>-76.746592951460897</v>
       </c>
       <c r="D5">
-        <v>-409.09865171725244</v>
+        <v>-24.302867970788313</v>
       </c>
       <c r="E5">
-        <v>-40.705554021393496</v>
+        <v>-7.2748923495617817</v>
       </c>
       <c r="F5">
-        <v>-35.791719373190929</v>
+        <v>-2.4947117649747588</v>
       </c>
       <c r="G5">
-        <v>4.4944120152599291E-2</v>
+        <v>3.7196737012339311E-2</v>
       </c>
       <c r="H5">
-        <v>0.87853106508875767</v>
+        <v>0.74632213930348257</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,25 +565,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.20578098261858394</v>
+        <v>0.32013301358272478</v>
       </c>
       <c r="C6">
-        <v>-300.97431617367533</v>
+        <v>-328.77660530999589</v>
       </c>
       <c r="D6">
-        <v>-248.07290849227374</v>
+        <v>-276.43312172568636</v>
       </c>
       <c r="E6">
-        <v>-21.249920242392758</v>
+        <v>-30.192690284736841</v>
       </c>
       <c r="F6">
-        <v>-14.99611347771171</v>
+        <v>-24.944815517441839</v>
       </c>
       <c r="G6">
-        <v>5.8704170810251755E-2</v>
+        <v>4.6357443336874998E-2</v>
       </c>
       <c r="H6">
-        <v>1.1665784023668637</v>
+        <v>0.91142786069651749</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,25 +591,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.43398202681055875</v>
+        <v>0.52090447434750298</v>
       </c>
       <c r="C7">
-        <v>154.79031161725925</v>
+        <v>172.13839275207249</v>
       </c>
       <c r="D7">
-        <v>207.30705060030263</v>
+        <v>224.17968427637842</v>
       </c>
       <c r="E7">
-        <v>11.775369669545347</v>
+        <v>15.888096016692337</v>
       </c>
       <c r="F7">
-        <v>16.696845485926147</v>
+        <v>20.819449073686478</v>
       </c>
       <c r="G7">
-        <v>3.7273361297065592E-2</v>
+        <v>3.746995680028771E-2</v>
       </c>
       <c r="H7">
-        <v>0.75583136094674441</v>
+        <v>0.76278731343283512</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -617,25 +617,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.74856626595422326</v>
+        <v>-0.73909206179961617</v>
       </c>
       <c r="C8">
-        <v>-428.3091846150279</v>
+        <v>-370.72757077281113</v>
       </c>
       <c r="D8">
-        <v>-481.02811230430905</v>
+        <v>-422.93915807371155</v>
       </c>
       <c r="E8">
-        <v>-33.204771757698779</v>
+        <v>-34.209260423567414</v>
       </c>
       <c r="F8">
-        <v>-37.368525880499348</v>
+        <v>-38.987186577497596</v>
       </c>
       <c r="G8">
-        <v>-2.140026530152429E-2</v>
+        <v>-3.183580420636456E-2</v>
       </c>
       <c r="H8">
-        <v>-0.45112056213017665</v>
+        <v>-0.66334950248756153</v>
       </c>
     </row>
   </sheetData>

--- a/effects.xlsx
+++ b/effects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E6404-CCC6-410E-912C-322620981B2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF8D3DF-FF64-4742-90FC-6E20E41F6518}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2760" windowWidth="15375" windowHeight="7875" xr2:uid="{4B6EEA52-CA12-4EB1-AADD-203E03242427}"/>
+    <workbookView xWindow="390" yWindow="990" windowWidth="15375" windowHeight="7875" xr2:uid="{4B6EEA52-CA12-4EB1-AADD-203E03242427}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -461,25 +461,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.30966315450077847</v>
+        <v>-0.31163755460459563</v>
       </c>
       <c r="C2">
-        <v>-203.09090481091886</v>
+        <v>-232.71666106066203</v>
       </c>
       <c r="D2">
-        <v>-202.98751629179927</v>
+        <v>-232.81661198765684</v>
       </c>
       <c r="E2">
-        <v>-18.869026550499044</v>
+        <v>-21.590851166403574</v>
       </c>
       <c r="F2">
-        <v>-18.904046179721892</v>
+        <v>-19.805347109387494</v>
       </c>
       <c r="G2">
-        <v>3.7086512067039043E-3</v>
+        <v>3.7454382255583275E-3</v>
       </c>
       <c r="H2">
-        <v>6.3723880597015004E-2</v>
+        <v>6.5244158878504543E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -487,25 +487,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.1460458216066578E-3</v>
+        <v>1.8973050997320162E-3</v>
       </c>
       <c r="C3">
-        <v>42.020177949335547</v>
+        <v>47.517631004277824</v>
       </c>
       <c r="D3">
-        <v>42.062479239317327</v>
+        <v>47.553966366897171</v>
       </c>
       <c r="E3">
-        <v>3.8954411194016609</v>
+        <v>4.4196632740954271</v>
       </c>
       <c r="F3">
-        <v>3.9082622756649821</v>
+        <v>4.4143200268599898</v>
       </c>
       <c r="G3">
-        <v>1.1170773108908072E-4</v>
+        <v>7.6973555238684169E-5</v>
       </c>
       <c r="H3">
-        <v>3.9925373134326869E-3</v>
+        <v>3.9193925233643179E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -513,25 +513,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.17854483541972851</v>
+        <v>0.1798003447802155</v>
       </c>
       <c r="C4">
-        <v>157.16114655716964</v>
+        <v>185.81187177009369</v>
       </c>
       <c r="D4">
-        <v>177.04634316684729</v>
+        <v>205.96699347144875</v>
       </c>
       <c r="E4">
-        <v>14.430682393334109</v>
+        <v>17.064270765664709</v>
       </c>
       <c r="F4">
-        <v>16.309391370882459</v>
+        <v>17.279979218711134</v>
       </c>
       <c r="G4">
-        <v>-3.6745046362537497E-3</v>
+        <v>-3.7676354050432768E-3</v>
       </c>
       <c r="H4">
-        <v>-6.2089552238806106E-2</v>
+        <v>-6.3737149532710397E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,25 +539,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.27010893180984419</v>
+        <v>0.26968143668804473</v>
       </c>
       <c r="C5">
-        <v>-76.746592951460897</v>
+        <v>-84.016403878982047</v>
       </c>
       <c r="D5">
-        <v>-24.302867970788313</v>
+        <v>-31.718145331003299</v>
       </c>
       <c r="E5">
-        <v>-7.2748923495617817</v>
+        <v>-7.9535102778691602</v>
       </c>
       <c r="F5">
-        <v>-2.4947117649747588</v>
+        <v>-3.077649190990229</v>
       </c>
       <c r="G5">
-        <v>3.7196737012339311E-2</v>
+        <v>3.7237540411645308E-2</v>
       </c>
       <c r="H5">
-        <v>0.74632213930348257</v>
+        <v>0.74637733644859838</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,25 +565,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.32013301358272478</v>
+        <v>0.31971465048541814</v>
       </c>
       <c r="C6">
-        <v>-328.77660530999589</v>
+        <v>-392.48275795358256</v>
       </c>
       <c r="D6">
-        <v>-276.43312172568636</v>
+        <v>-339.93454385742882</v>
       </c>
       <c r="E6">
-        <v>-30.192690284736841</v>
+        <v>-35.997957170650167</v>
       </c>
       <c r="F6">
-        <v>-24.944815517441839</v>
+        <v>-30.573356663664317</v>
       </c>
       <c r="G6">
-        <v>4.6357443336874998E-2</v>
+        <v>4.6193759035549849E-2</v>
       </c>
       <c r="H6">
-        <v>0.91142786069651749</v>
+        <v>0.91529672897196246</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,25 +591,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.52090447434750298</v>
+        <v>0.52271199563600956</v>
       </c>
       <c r="C7">
-        <v>172.13839275207249</v>
+        <v>194.66859758823114</v>
       </c>
       <c r="D7">
-        <v>224.17968427637842</v>
+        <v>247.24152143741708</v>
       </c>
       <c r="E7">
-        <v>15.888096016692337</v>
+        <v>18.090729642255582</v>
       </c>
       <c r="F7">
-        <v>20.819449073686478</v>
+        <v>21.801890668173197</v>
       </c>
       <c r="G7">
-        <v>3.746995680028771E-2</v>
+        <v>3.7291602738624752E-2</v>
       </c>
       <c r="H7">
-        <v>0.76278731343283512</v>
+        <v>0.76257359813084102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -617,25 +617,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.73909206179961617</v>
+        <v>-0.73905130488660609</v>
       </c>
       <c r="C8">
-        <v>-370.72757077281113</v>
+        <v>-429.41595049508004</v>
       </c>
       <c r="D8">
-        <v>-422.93915807371155</v>
+        <v>-481.76715511109597</v>
       </c>
       <c r="E8">
-        <v>-34.209260423567414</v>
+        <v>-39.702999329626728</v>
       </c>
       <c r="F8">
-        <v>-38.987186577497596</v>
+        <v>-41.915097723073373</v>
       </c>
       <c r="G8">
-        <v>-3.183580420636456E-2</v>
+        <v>-3.176256109030428E-2</v>
       </c>
       <c r="H8">
-        <v>-0.66334950248756153</v>
+        <v>-0.66079205607476621</v>
       </c>
     </row>
   </sheetData>
